--- a/trunk/SisCoTe_LR.xlsx
+++ b/trunk/SisCoTe_LR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>N°</t>
   </si>
@@ -58,9 +58,6 @@
     <t>RF-05</t>
   </si>
   <si>
-    <t>RF-07</t>
-  </si>
-  <si>
     <t>CASO DE USO</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
   </si>
   <si>
     <t>Para tener un control de los usuarios.</t>
-  </si>
-  <si>
-    <t>Registrar historial de revisiones</t>
   </si>
 </sst>
 </file>
@@ -346,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -386,30 +380,63 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -426,42 +453,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -745,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -764,16 +755,16 @@
   <sheetData>
     <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -798,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -806,16 +797,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>7</v>
@@ -824,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -838,10 +829,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>7</v>
@@ -850,107 +841,107 @@
         <v>8</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
-        <v>2</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="D7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="E7" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>4</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="D10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
-        <v>4</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="36" t="s">
+      <c r="H10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="12" t="s">
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="12" t="s">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="10" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -958,16 +949,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>7</v>
@@ -976,100 +967,80 @@
         <v>8</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="A14" s="28">
         <v>9</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="E14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="G14" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="7" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="7" t="s">
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="A3:H3"/>
@@ -1086,7 +1057,11 @@
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
